--- a/result/atest_060_zernikemomentcalctime_GPU_15P_3K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_15P_3K.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,108 +429,241 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>1 K</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>2 K</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>3 K</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>AVG</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPU</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>CPU</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>-0.5973540192832422</v>
-      </c>
       <c r="D2" t="n">
-        <v>-0.7542096549899382</v>
+        <v>2.402282193295566</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2101168632507324</v>
+        <v>-0.7774931441040897</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07214879989624023</v>
+        <v>0.1734664440155029</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1235518455505371</v>
+        <v>0.7950484752655029</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.496033191680908</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.154849370320638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GPU</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+          <t>CPU</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.8014989864161084</v>
-      </c>
       <c r="D3" t="n">
-        <v>-0.826465157102456</v>
+        <v>2.168633365873123</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1542205810546875</v>
+        <v>-0.06725060676367992</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2372634410858154</v>
+        <v>0.8478505611419678</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3809945583343506</v>
+        <v>3.958917140960693</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.117530107498169</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.641432603200276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>CPU</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.311616479472407</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3073744118834278</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.026251554489136</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.11778903007507</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25.65260720252991</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.59888259569804</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>GPU</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.08706457864011381</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.6372868319801671</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.269726037979126</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1418042182922363</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.274017333984375</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2285158634185791</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.853461095726983</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.7141053518497057</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2035427093505859</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3027896881103516</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5395219326019287</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3486181100209554</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.8855360500478829</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.4681262135794413</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3535950183868408</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5667364597320557</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.96120285987854</v>
+      <c r="D7" t="n">
+        <v>0.8934375077013246</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4148023445781748</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4021058082580566</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6342811584472656</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.107134342193604</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7145071029663086</v>
       </c>
     </row>
   </sheetData>
